--- a/자격증 종류 4. certList.xlsx
+++ b/자격증 종류 4. certList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yunzi\academy\project_crawling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyj_project\project_crawling_25_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="2565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5802" uniqueCount="2569">
   <si>
     <t>id</t>
   </si>
@@ -8080,6 +8080,20 @@
   </si>
   <si>
     <t>펫뷰티션</t>
+  </si>
+  <si>
+    <t>TAT(세무정보처리) 1급</t>
+  </si>
+  <si>
+    <t>TAT(세무정보처리) 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAT(회계정보처리) 1급</t>
+  </si>
+  <si>
+    <t>FAT(회계정보처리) 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8687,11 +8701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1403"/>
+  <dimension ref="A1:R1407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A823" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D836" sqref="D836:E836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38033,10 +38047,10 @@
     </row>
     <row r="834" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A834">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B834" t="s">
-        <v>1942</v>
+        <v>2567</v>
       </c>
       <c r="D834">
         <v>0</v>
@@ -38050,10 +38064,10 @@
     </row>
     <row r="835" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A835">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B835" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D835">
         <v>0</v>
@@ -38067,10 +38081,10 @@
     </row>
     <row r="836" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A836">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B836" t="s">
-        <v>1944</v>
+        <v>2568</v>
       </c>
       <c r="D836">
         <v>0</v>
@@ -38084,16 +38098,16 @@
     </row>
     <row r="837" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A837">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B837" t="s">
-        <v>1880</v>
+        <v>1943</v>
       </c>
       <c r="D837">
         <v>0</v>
       </c>
       <c r="E837" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
@@ -38101,16 +38115,16 @@
     </row>
     <row r="838" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A838">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B838" t="s">
-        <v>1881</v>
+        <v>2565</v>
       </c>
       <c r="D838">
         <v>0</v>
       </c>
       <c r="E838" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
@@ -38118,16 +38132,16 @@
     </row>
     <row r="839" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A839">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B839" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D839">
         <v>0</v>
       </c>
       <c r="E839" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
@@ -38135,16 +38149,16 @@
     </row>
     <row r="840" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A840">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B840" t="s">
-        <v>1946</v>
+        <v>2566</v>
       </c>
       <c r="D840">
         <v>0</v>
       </c>
       <c r="E840" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
@@ -38152,16 +38166,16 @@
     </row>
     <row r="841" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A841">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B841" t="s">
-        <v>1947</v>
+        <v>1880</v>
       </c>
       <c r="D841">
         <v>0</v>
       </c>
       <c r="E841" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
@@ -38169,16 +38183,16 @@
     </row>
     <row r="842" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A842">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B842" t="s">
-        <v>1948</v>
+        <v>1881</v>
       </c>
       <c r="D842">
         <v>0</v>
       </c>
       <c r="E842" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
@@ -38186,16 +38200,16 @@
     </row>
     <row r="843" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A843">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B843" t="s">
-        <v>1882</v>
+        <v>1945</v>
       </c>
       <c r="D843">
         <v>0</v>
       </c>
       <c r="E843" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
@@ -38203,19 +38217,16 @@
     </row>
     <row r="844" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A844">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B844" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D844">
         <v>0</v>
       </c>
       <c r="E844" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G844" t="s">
-        <v>2535</v>
+        <v>1788</v>
       </c>
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
@@ -38223,19 +38234,16 @@
     </row>
     <row r="845" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A845">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B845" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D845">
         <v>0</v>
       </c>
       <c r="E845" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G845" t="s">
-        <v>2535</v>
+        <v>1788</v>
       </c>
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
@@ -38243,19 +38251,16 @@
     </row>
     <row r="846" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A846">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B846" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="D846">
         <v>0</v>
       </c>
       <c r="E846" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G846" t="s">
-        <v>2535</v>
+        <v>1788</v>
       </c>
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
@@ -38263,19 +38268,16 @@
     </row>
     <row r="847" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A847">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B847" t="s">
-        <v>1951</v>
+        <v>1882</v>
       </c>
       <c r="D847">
         <v>0</v>
       </c>
       <c r="E847" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G847" t="s">
-        <v>2535</v>
+        <v>1789</v>
       </c>
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
@@ -38283,10 +38285,10 @@
     </row>
     <row r="848" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A848">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B848" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="D848">
         <v>0</v>
@@ -38303,10 +38305,10 @@
     </row>
     <row r="849" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A849">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B849" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="D849">
         <v>0</v>
@@ -38323,10 +38325,10 @@
     </row>
     <row r="850" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A850">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B850" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D850">
         <v>0</v>
@@ -38343,10 +38345,10 @@
     </row>
     <row r="851" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A851">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B851" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="D851">
         <v>0</v>
@@ -38363,10 +38365,10 @@
     </row>
     <row r="852" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A852">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B852" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="D852">
         <v>0</v>
@@ -38383,10 +38385,10 @@
     </row>
     <row r="853" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A853">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B853" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="D853">
         <v>0</v>
@@ -38403,10 +38405,10 @@
     </row>
     <row r="854" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A854">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B854" t="s">
-        <v>2465</v>
+        <v>1955</v>
       </c>
       <c r="D854">
         <v>0</v>
@@ -38423,10 +38425,10 @@
     </row>
     <row r="855" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A855">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B855" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D855">
         <v>0</v>
@@ -38443,10 +38445,10 @@
     </row>
     <row r="856" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A856">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B856" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D856">
         <v>0</v>
@@ -38462,17 +38464,16 @@
       <c r="R856" s="3"/>
     </row>
     <row r="857" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A857" s="6">
-        <v>855</v>
-      </c>
-      <c r="B857" s="6" t="s">
-        <v>2466</v>
-      </c>
-      <c r="C857" s="6"/>
-      <c r="D857" s="6">
+      <c r="A857">
+        <v>852</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D857">
         <v>0</v>
       </c>
-      <c r="E857" s="6" t="s">
+      <c r="E857" t="s">
         <v>1790</v>
       </c>
       <c r="G857" t="s">
@@ -38483,17 +38484,16 @@
       <c r="R857" s="3"/>
     </row>
     <row r="858" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A858" s="6">
-        <v>855</v>
-      </c>
-      <c r="B858" s="6" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C858" s="6"/>
-      <c r="D858" s="6">
+      <c r="A858">
+        <v>853</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D858">
         <v>0</v>
       </c>
-      <c r="E858" s="6" t="s">
+      <c r="E858" t="s">
         <v>1790</v>
       </c>
       <c r="G858" t="s">
@@ -38504,17 +38504,16 @@
       <c r="R858" s="3"/>
     </row>
     <row r="859" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A859" s="6">
-        <v>855</v>
-      </c>
-      <c r="B859" s="6" t="s">
-        <v>2467</v>
-      </c>
-      <c r="C859" s="6"/>
-      <c r="D859" s="6">
+      <c r="A859">
+        <v>854</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D859">
         <v>0</v>
       </c>
-      <c r="E859" s="6" t="s">
+      <c r="E859" t="s">
         <v>1790</v>
       </c>
       <c r="G859" t="s">
@@ -38526,10 +38525,10 @@
     </row>
     <row r="860" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A860">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B860" t="s">
-        <v>1883</v>
+        <v>1960</v>
       </c>
       <c r="D860">
         <v>0</v>
@@ -38545,16 +38544,17 @@
       <c r="R860" s="3"/>
     </row>
     <row r="861" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A861">
-        <v>857</v>
-      </c>
-      <c r="B861" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D861">
+      <c r="A861" s="6">
+        <v>855</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C861" s="6"/>
+      <c r="D861" s="6">
         <v>0</v>
       </c>
-      <c r="E861" t="s">
+      <c r="E861" s="6" t="s">
         <v>1790</v>
       </c>
       <c r="G861" t="s">
@@ -38565,16 +38565,17 @@
       <c r="R861" s="3"/>
     </row>
     <row r="862" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A862">
-        <v>858</v>
-      </c>
-      <c r="B862" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D862">
+      <c r="A862" s="6">
+        <v>855</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C862" s="6"/>
+      <c r="D862" s="6">
         <v>0</v>
       </c>
-      <c r="E862" t="s">
+      <c r="E862" s="6" t="s">
         <v>1790</v>
       </c>
       <c r="G862" t="s">
@@ -38585,16 +38586,17 @@
       <c r="R862" s="3"/>
     </row>
     <row r="863" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A863">
-        <v>859</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D863">
+      <c r="A863" s="6">
+        <v>855</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C863" s="6"/>
+      <c r="D863" s="6">
         <v>0</v>
       </c>
-      <c r="E863" t="s">
+      <c r="E863" s="6" t="s">
         <v>1790</v>
       </c>
       <c r="G863" t="s">
@@ -38606,10 +38608,10 @@
     </row>
     <row r="864" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A864">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B864" t="s">
-        <v>1971</v>
+        <v>1883</v>
       </c>
       <c r="D864">
         <v>0</v>
@@ -38626,10 +38628,10 @@
     </row>
     <row r="865" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A865">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B865" t="s">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="D865">
         <v>0</v>
@@ -38646,16 +38648,19 @@
     </row>
     <row r="866" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A866">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B866" t="s">
-        <v>2549</v>
+        <v>1962</v>
       </c>
       <c r="D866">
         <v>0</v>
       </c>
       <c r="E866" t="s">
         <v>1790</v>
+      </c>
+      <c r="G866" t="s">
+        <v>2535</v>
       </c>
       <c r="P866" s="3"/>
       <c r="Q866" s="3"/>
@@ -38663,10 +38668,10 @@
     </row>
     <row r="867" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A867">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B867" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="D867">
         <v>0</v>
@@ -38683,10 +38688,10 @@
     </row>
     <row r="868" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A868">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B868" t="s">
-        <v>2383</v>
+        <v>1971</v>
       </c>
       <c r="D868">
         <v>0</v>
@@ -38703,16 +38708,19 @@
     </row>
     <row r="869" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A869">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B869" t="s">
-        <v>2548</v>
+        <v>1972</v>
       </c>
       <c r="D869">
         <v>0</v>
       </c>
       <c r="E869" t="s">
         <v>1790</v>
+      </c>
+      <c r="G869" t="s">
+        <v>2535</v>
       </c>
       <c r="P869" s="3"/>
       <c r="Q869" s="3"/>
@@ -38720,19 +38728,16 @@
     </row>
     <row r="870" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A870">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B870" t="s">
-        <v>1964</v>
+        <v>2549</v>
       </c>
       <c r="D870">
         <v>0</v>
       </c>
       <c r="E870" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G870" t="s">
-        <v>2536</v>
+        <v>1790</v>
       </c>
       <c r="P870" s="3"/>
       <c r="Q870" s="3"/>
@@ -38740,19 +38745,19 @@
     </row>
     <row r="871" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A871">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B871" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="D871">
         <v>0</v>
       </c>
       <c r="E871" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="G871" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="P871" s="3"/>
       <c r="Q871" s="3"/>
@@ -38760,19 +38765,19 @@
     </row>
     <row r="872" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A872">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B872" t="s">
-        <v>1966</v>
+        <v>2383</v>
       </c>
       <c r="D872">
         <v>0</v>
       </c>
       <c r="E872" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="G872" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="P872" s="3"/>
       <c r="Q872" s="3"/>
@@ -38780,19 +38785,16 @@
     </row>
     <row r="873" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A873">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B873" t="s">
-        <v>1967</v>
+        <v>2548</v>
       </c>
       <c r="D873">
         <v>0</v>
       </c>
       <c r="E873" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G873" t="s">
-        <v>2536</v>
+        <v>1790</v>
       </c>
       <c r="P873" s="3"/>
       <c r="Q873" s="3"/>
@@ -38800,10 +38802,10 @@
     </row>
     <row r="874" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A874">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B874" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="D874">
         <v>0</v>
@@ -38820,10 +38822,10 @@
     </row>
     <row r="875" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A875">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B875" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="D875">
         <v>0</v>
@@ -38840,10 +38842,10 @@
     </row>
     <row r="876" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A876">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B876" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="D876">
         <v>0</v>
@@ -38860,16 +38862,19 @@
     </row>
     <row r="877" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A877">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B877" t="s">
-        <v>1884</v>
+        <v>1967</v>
       </c>
       <c r="D877">
         <v>0</v>
       </c>
       <c r="E877" t="s">
-        <v>1793</v>
+        <v>1792</v>
+      </c>
+      <c r="G877" t="s">
+        <v>2536</v>
       </c>
       <c r="P877" s="3"/>
       <c r="Q877" s="3"/>
@@ -38877,16 +38882,19 @@
     </row>
     <row r="878" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A878">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B878" t="s">
-        <v>1885</v>
+        <v>1968</v>
       </c>
       <c r="D878">
         <v>0</v>
       </c>
       <c r="E878" t="s">
-        <v>1794</v>
+        <v>1792</v>
+      </c>
+      <c r="G878" t="s">
+        <v>2536</v>
       </c>
       <c r="P878" s="3"/>
       <c r="Q878" s="3"/>
@@ -38894,16 +38902,19 @@
     </row>
     <row r="879" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A879">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B879" t="s">
-        <v>1886</v>
+        <v>1969</v>
       </c>
       <c r="D879">
         <v>0</v>
       </c>
       <c r="E879" t="s">
-        <v>1795</v>
+        <v>1792</v>
+      </c>
+      <c r="G879" t="s">
+        <v>2536</v>
       </c>
       <c r="P879" s="3"/>
       <c r="Q879" s="3"/>
@@ -38911,16 +38922,19 @@
     </row>
     <row r="880" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A880">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B880" t="s">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="D880">
         <v>0</v>
       </c>
       <c r="E880" t="s">
-        <v>1796</v>
+        <v>1792</v>
+      </c>
+      <c r="G880" t="s">
+        <v>2536</v>
       </c>
       <c r="P880" s="3"/>
       <c r="Q880" s="3"/>
@@ -38928,16 +38942,16 @@
     </row>
     <row r="881" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A881">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B881" t="s">
-        <v>1977</v>
+        <v>1884</v>
       </c>
       <c r="D881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E881" t="s">
-        <v>1974</v>
+        <v>1793</v>
       </c>
       <c r="P881" s="3"/>
       <c r="Q881" s="3"/>
@@ -38945,16 +38959,16 @@
     </row>
     <row r="882" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A882">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B882" t="s">
-        <v>1978</v>
+        <v>1885</v>
       </c>
       <c r="D882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E882" t="s">
-        <v>1974</v>
+        <v>1794</v>
       </c>
       <c r="P882" s="3"/>
       <c r="Q882" s="3"/>
@@ -38962,16 +38976,16 @@
     </row>
     <row r="883" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A883">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B883" t="s">
-        <v>2395</v>
+        <v>1886</v>
       </c>
       <c r="D883">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E883" t="s">
-        <v>1974</v>
+        <v>1795</v>
       </c>
       <c r="P883" s="3"/>
       <c r="Q883" s="3"/>
@@ -38979,16 +38993,16 @@
     </row>
     <row r="884" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A884">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B884" t="s">
-        <v>1979</v>
+        <v>2550</v>
       </c>
       <c r="D884">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E884" t="s">
-        <v>1974</v>
+        <v>1796</v>
       </c>
       <c r="P884" s="3"/>
       <c r="Q884" s="3"/>
@@ -38996,10 +39010,10 @@
     </row>
     <row r="885" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A885">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B885" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="D885">
         <v>1</v>
@@ -39013,10 +39027,10 @@
     </row>
     <row r="886" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A886">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B886" t="s">
-        <v>2020</v>
+        <v>1978</v>
       </c>
       <c r="D886">
         <v>1</v>
@@ -39030,10 +39044,10 @@
     </row>
     <row r="887" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A887">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B887" t="s">
-        <v>1976</v>
+        <v>2395</v>
       </c>
       <c r="D887">
         <v>1</v>
@@ -39047,13 +39061,16 @@
     </row>
     <row r="888" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A888">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B888" t="s">
-        <v>2384</v>
+        <v>1979</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
       </c>
       <c r="E888" t="s">
-        <v>2411</v>
+        <v>1974</v>
       </c>
       <c r="P888" s="3"/>
       <c r="Q888" s="3"/>
@@ -39061,13 +39078,16 @@
     </row>
     <row r="889" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A889">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B889" t="s">
-        <v>2385</v>
+        <v>1975</v>
+      </c>
+      <c r="D889">
+        <v>1</v>
       </c>
       <c r="E889" t="s">
-        <v>2412</v>
+        <v>1974</v>
       </c>
       <c r="P889" s="3"/>
       <c r="Q889" s="3"/>
@@ -39075,13 +39095,16 @@
     </row>
     <row r="890" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A890">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B890" t="s">
-        <v>2414</v>
+        <v>2020</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
       </c>
       <c r="E890" t="s">
-        <v>2413</v>
+        <v>1974</v>
       </c>
       <c r="P890" s="3"/>
       <c r="Q890" s="3"/>
@@ -39089,16 +39112,16 @@
     </row>
     <row r="891" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A891">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B891" t="s">
-        <v>2415</v>
+        <v>1976</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
       </c>
       <c r="E891" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F891">
-        <v>886</v>
+        <v>1974</v>
       </c>
       <c r="P891" s="3"/>
       <c r="Q891" s="3"/>
@@ -39106,16 +39129,13 @@
     </row>
     <row r="892" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A892">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B892" t="s">
-        <v>2416</v>
+        <v>2384</v>
       </c>
       <c r="E892" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F892">
-        <v>886</v>
+        <v>2411</v>
       </c>
       <c r="P892" s="3"/>
       <c r="Q892" s="3"/>
@@ -39123,16 +39143,13 @@
     </row>
     <row r="893" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A893">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B893" t="s">
-        <v>2417</v>
+        <v>2385</v>
       </c>
       <c r="E893" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F893">
-        <v>886</v>
+        <v>2412</v>
       </c>
       <c r="P893" s="3"/>
       <c r="Q893" s="3"/>
@@ -39140,16 +39157,13 @@
     </row>
     <row r="894" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A894">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B894" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="E894" t="s">
         <v>2413</v>
-      </c>
-      <c r="F894">
-        <v>886</v>
       </c>
       <c r="P894" s="3"/>
       <c r="Q894" s="3"/>
@@ -39157,10 +39171,10 @@
     </row>
     <row r="895" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A895">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B895" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="E895" t="s">
         <v>2413</v>
@@ -39174,13 +39188,16 @@
     </row>
     <row r="896" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A896">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B896" t="s">
-        <v>2552</v>
+        <v>2416</v>
       </c>
       <c r="E896" t="s">
-        <v>2422</v>
+        <v>2413</v>
+      </c>
+      <c r="F896">
+        <v>886</v>
       </c>
       <c r="P896" s="3"/>
       <c r="Q896" s="3"/>
@@ -39188,13 +39205,16 @@
     </row>
     <row r="897" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A897">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B897" t="s">
-        <v>2553</v>
+        <v>2417</v>
       </c>
       <c r="E897" t="s">
-        <v>2423</v>
+        <v>2413</v>
+      </c>
+      <c r="F897">
+        <v>886</v>
       </c>
       <c r="P897" s="3"/>
       <c r="Q897" s="3"/>
@@ -39202,13 +39222,16 @@
     </row>
     <row r="898" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A898">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B898" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E898" t="s">
-        <v>2423</v>
+        <v>2413</v>
+      </c>
+      <c r="F898">
+        <v>886</v>
       </c>
       <c r="P898" s="3"/>
       <c r="Q898" s="3"/>
@@ -39216,13 +39239,16 @@
     </row>
     <row r="899" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A899">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B899" t="s">
-        <v>2554</v>
+        <v>2419</v>
       </c>
       <c r="E899" t="s">
-        <v>2422</v>
+        <v>2413</v>
+      </c>
+      <c r="F899">
+        <v>886</v>
       </c>
       <c r="P899" s="3"/>
       <c r="Q899" s="3"/>
@@ -39230,10 +39256,10 @@
     </row>
     <row r="900" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A900">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B900" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="E900" t="s">
         <v>2422</v>
@@ -39244,10 +39270,10 @@
     </row>
     <row r="901" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A901">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B901" t="s">
-        <v>2421</v>
+        <v>2553</v>
       </c>
       <c r="E901" t="s">
         <v>2423</v>
@@ -39258,13 +39284,13 @@
     </row>
     <row r="902" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A902">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B902" t="s">
-        <v>2386</v>
-      </c>
-      <c r="E902" s="4" t="s">
-        <v>2424</v>
+        <v>2420</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2423</v>
       </c>
       <c r="P902" s="3"/>
       <c r="Q902" s="3"/>
@@ -39272,16 +39298,13 @@
     </row>
     <row r="903" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A903">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B903" t="s">
-        <v>2406</v>
+        <v>2554</v>
       </c>
       <c r="E903" t="s">
-        <v>2429</v>
-      </c>
-      <c r="G903" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="P903" s="3"/>
       <c r="Q903" s="3"/>
@@ -39289,16 +39312,13 @@
     </row>
     <row r="904" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A904">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B904" t="s">
-        <v>2425</v>
+        <v>2551</v>
       </c>
       <c r="E904" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G904" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="P904" s="3"/>
       <c r="Q904" s="3"/>
@@ -39306,19 +39326,13 @@
     </row>
     <row r="905" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A905">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B905" t="s">
-        <v>2387</v>
+        <v>2421</v>
       </c>
       <c r="E905" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F905">
-        <v>896</v>
-      </c>
-      <c r="G905" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="P905" s="3"/>
       <c r="Q905" s="3"/>
@@ -39326,16 +39340,13 @@
     </row>
     <row r="906" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A906">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B906" t="s">
-        <v>2388</v>
-      </c>
-      <c r="E906" t="s">
-        <v>2431</v>
-      </c>
-      <c r="G906" t="s">
-        <v>2430</v>
+        <v>2386</v>
+      </c>
+      <c r="E906" s="4" t="s">
+        <v>2424</v>
       </c>
       <c r="P906" s="3"/>
       <c r="Q906" s="3"/>
@@ -39343,13 +39354,16 @@
     </row>
     <row r="907" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A907">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B907" t="s">
-        <v>2390</v>
+        <v>2406</v>
       </c>
       <c r="E907" t="s">
-        <v>2491</v>
+        <v>2429</v>
+      </c>
+      <c r="G907" t="s">
+        <v>2428</v>
       </c>
       <c r="P907" s="3"/>
       <c r="Q907" s="3"/>
@@ -39357,16 +39371,16 @@
     </row>
     <row r="908" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A908">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B908" t="s">
-        <v>2391</v>
+        <v>2425</v>
       </c>
       <c r="E908" t="s">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="G908" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="P908" s="3"/>
       <c r="Q908" s="3"/>
@@ -39374,16 +39388,19 @@
     </row>
     <row r="909" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A909">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B909" t="s">
-        <v>2402</v>
+        <v>2387</v>
       </c>
       <c r="E909" t="s">
-        <v>1778</v>
+        <v>2426</v>
+      </c>
+      <c r="F909">
+        <v>896</v>
       </c>
       <c r="G909" t="s">
-        <v>2516</v>
+        <v>2427</v>
       </c>
       <c r="P909" s="3"/>
       <c r="Q909" s="3"/>
@@ -39391,16 +39408,16 @@
     </row>
     <row r="910" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A910">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B910" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="E910" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="G910" t="s">
-        <v>2516</v>
+        <v>2430</v>
       </c>
       <c r="P910" s="3"/>
       <c r="Q910" s="3"/>
@@ -39408,16 +39425,13 @@
     </row>
     <row r="911" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A911">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B911" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="E911" t="s">
-        <v>2432</v>
-      </c>
-      <c r="G911" t="s">
-        <v>2516</v>
+        <v>2491</v>
       </c>
       <c r="P911" s="3"/>
       <c r="Q911" s="3"/>
@@ -39425,16 +39439,16 @@
     </row>
     <row r="912" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A912">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B912" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
       <c r="E912" t="s">
-        <v>2434</v>
+        <v>2443</v>
       </c>
       <c r="G912" t="s">
-        <v>2433</v>
+        <v>2444</v>
       </c>
       <c r="P912" s="3"/>
       <c r="Q912" s="3"/>
@@ -39442,16 +39456,16 @@
     </row>
     <row r="913" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A913">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B913" t="s">
-        <v>2397</v>
+        <v>2402</v>
       </c>
       <c r="E913" t="s">
-        <v>2434</v>
+        <v>1778</v>
       </c>
       <c r="G913" t="s">
-        <v>2433</v>
+        <v>2516</v>
       </c>
       <c r="P913" s="3"/>
       <c r="Q913" s="3"/>
@@ -39459,16 +39473,16 @@
     </row>
     <row r="914" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A914">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B914" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="E914" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="G914" t="s">
-        <v>2433</v>
+        <v>2516</v>
       </c>
       <c r="P914" s="3"/>
       <c r="Q914" s="3"/>
@@ -39476,16 +39490,16 @@
     </row>
     <row r="915" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A915">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B915" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="E915" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="G915" t="s">
-        <v>2433</v>
+        <v>2516</v>
       </c>
       <c r="P915" s="3"/>
       <c r="Q915" s="3"/>
@@ -39493,16 +39507,16 @@
     </row>
     <row r="916" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A916">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B916" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="E916" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="G916" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="P916" s="3"/>
       <c r="Q916" s="3"/>
@@ -39510,16 +39524,16 @@
     </row>
     <row r="917" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A917">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B917" t="s">
-        <v>2437</v>
+        <v>2397</v>
       </c>
       <c r="E917" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="G917" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="P917" s="3"/>
       <c r="Q917" s="3"/>
@@ -39527,16 +39541,16 @@
     </row>
     <row r="918" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A918">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B918" t="s">
-        <v>2484</v>
+        <v>2396</v>
       </c>
       <c r="E918" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="G918" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="P918" s="3"/>
       <c r="Q918" s="3"/>
@@ -39544,16 +39558,16 @@
     </row>
     <row r="919" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A919">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B919" t="s">
-        <v>2438</v>
+        <v>2392</v>
       </c>
       <c r="E919" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="G919" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="P919" s="3"/>
       <c r="Q919" s="3"/>
@@ -39561,10 +39575,10 @@
     </row>
     <row r="920" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A920">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B920" t="s">
-        <v>2483</v>
+        <v>2400</v>
       </c>
       <c r="E920" t="s">
         <v>2435</v>
@@ -39578,10 +39592,10 @@
     </row>
     <row r="921" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A921">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B921" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="E921" t="s">
         <v>2435</v>
@@ -39595,10 +39609,10 @@
     </row>
     <row r="922" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A922">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B922" t="s">
-        <v>2440</v>
+        <v>2484</v>
       </c>
       <c r="E922" t="s">
         <v>2435</v>
@@ -39612,10 +39626,10 @@
     </row>
     <row r="923" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A923">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B923" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="E923" t="s">
         <v>2435</v>
@@ -39629,10 +39643,10 @@
     </row>
     <row r="924" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A924">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B924" t="s">
-        <v>2442</v>
+        <v>2483</v>
       </c>
       <c r="E924" t="s">
         <v>2435</v>
@@ -39646,10 +39660,10 @@
     </row>
     <row r="925" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A925">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B925" t="s">
-        <v>2401</v>
+        <v>2439</v>
       </c>
       <c r="E925" t="s">
         <v>2435</v>
@@ -39663,16 +39677,16 @@
     </row>
     <row r="926" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A926">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B926" t="s">
-        <v>2393</v>
+        <v>2440</v>
       </c>
       <c r="E926" t="s">
-        <v>2487</v>
+        <v>2435</v>
       </c>
       <c r="G926" t="s">
-        <v>2515</v>
+        <v>2436</v>
       </c>
       <c r="P926" s="3"/>
       <c r="Q926" s="3"/>
@@ -39680,16 +39694,16 @@
     </row>
     <row r="927" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A927">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B927" t="s">
-        <v>2394</v>
+        <v>2441</v>
       </c>
       <c r="E927" t="s">
-        <v>2487</v>
+        <v>2435</v>
       </c>
       <c r="G927" t="s">
-        <v>2515</v>
+        <v>2436</v>
       </c>
       <c r="P927" s="3"/>
       <c r="Q927" s="3"/>
@@ -39697,16 +39711,16 @@
     </row>
     <row r="928" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A928">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B928" t="s">
-        <v>2404</v>
+        <v>2442</v>
       </c>
       <c r="E928" t="s">
-        <v>2462</v>
+        <v>2435</v>
       </c>
       <c r="G928" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
       <c r="P928" s="3"/>
       <c r="Q928" s="3"/>
@@ -39714,16 +39728,16 @@
     </row>
     <row r="929" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A929">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B929" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="E929" t="s">
-        <v>2462</v>
+        <v>2435</v>
       </c>
       <c r="G929" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
       <c r="P929" s="3"/>
       <c r="Q929" s="3"/>
@@ -39731,7 +39745,16 @@
     </row>
     <row r="930" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A930">
-        <v>920</v>
+        <v>916</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E930" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G930" t="s">
+        <v>2515</v>
       </c>
       <c r="P930" s="3"/>
       <c r="Q930" s="3"/>
@@ -39739,16 +39762,16 @@
     </row>
     <row r="931" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A931">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B931" t="s">
-        <v>2461</v>
+        <v>2394</v>
       </c>
       <c r="E931" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="G931" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="P931" s="3"/>
       <c r="Q931" s="3"/>
@@ -39756,16 +39779,16 @@
     </row>
     <row r="932" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A932">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B932" t="s">
-        <v>2445</v>
+        <v>2404</v>
       </c>
       <c r="E932" t="s">
-        <v>2489</v>
+        <v>2462</v>
       </c>
       <c r="G932" t="s">
-        <v>2513</v>
+        <v>2460</v>
       </c>
       <c r="P932" s="3"/>
       <c r="Q932" s="3"/>
@@ -39773,19 +39796,16 @@
     </row>
     <row r="933" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A933">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B933" t="s">
-        <v>2446</v>
+        <v>2403</v>
       </c>
       <c r="E933" t="s">
-        <v>2489</v>
-      </c>
-      <c r="F933">
-        <v>920</v>
+        <v>2462</v>
       </c>
       <c r="G933" t="s">
-        <v>2513</v>
+        <v>2460</v>
       </c>
       <c r="P933" s="3"/>
       <c r="Q933" s="3"/>
@@ -39793,19 +39813,7 @@
     </row>
     <row r="934" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A934">
-        <v>923</v>
-      </c>
-      <c r="B934" t="s">
-        <v>2447</v>
-      </c>
-      <c r="E934" t="s">
-        <v>2489</v>
-      </c>
-      <c r="F934">
         <v>920</v>
-      </c>
-      <c r="G934" t="s">
-        <v>2513</v>
       </c>
       <c r="P934" s="3"/>
       <c r="Q934" s="3"/>
@@ -39813,10 +39821,16 @@
     </row>
     <row r="935" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A935">
-        <v>924</v>
+        <v>921</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E935" t="s">
+        <v>2489</v>
       </c>
       <c r="G935" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="P935" s="3"/>
       <c r="Q935" s="3"/>
@@ -39824,94 +39838,84 @@
     </row>
     <row r="936" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A936">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B936" t="s">
-        <v>2251</v>
+        <v>2445</v>
       </c>
       <c r="E936" t="s">
-        <v>2252</v>
+        <v>2489</v>
       </c>
       <c r="G936" t="s">
-        <v>2510</v>
-      </c>
-      <c r="O936" s="3"/>
+        <v>2513</v>
+      </c>
       <c r="P936" s="3"/>
       <c r="Q936" s="3"/>
       <c r="R936" s="3"/>
     </row>
     <row r="937" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A937">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B937" t="s">
-        <v>2410</v>
+        <v>2446</v>
       </c>
       <c r="E937" t="s">
-        <v>2512</v>
+        <v>2489</v>
+      </c>
+      <c r="F937">
+        <v>920</v>
       </c>
       <c r="G937" t="s">
-        <v>2511</v>
-      </c>
-      <c r="O937" s="3"/>
+        <v>2513</v>
+      </c>
       <c r="P937" s="3"/>
       <c r="Q937" s="3"/>
       <c r="R937" s="3"/>
     </row>
     <row r="938" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A938">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B938" t="s">
-        <v>2409</v>
+        <v>2447</v>
       </c>
       <c r="E938" t="s">
-        <v>2512</v>
+        <v>2489</v>
       </c>
       <c r="F938">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G938" t="s">
-        <v>2511</v>
-      </c>
-      <c r="O938" s="3"/>
+        <v>2513</v>
+      </c>
       <c r="P938" s="3"/>
       <c r="Q938" s="3"/>
       <c r="R938" s="3"/>
     </row>
     <row r="939" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A939">
-        <v>928</v>
-      </c>
-      <c r="B939" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E939" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F939">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G939" t="s">
-        <v>2511</v>
-      </c>
-      <c r="O939" s="3"/>
+        <v>2514</v>
+      </c>
       <c r="P939" s="3"/>
       <c r="Q939" s="3"/>
       <c r="R939" s="3"/>
     </row>
     <row r="940" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A940">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B940" t="s">
-        <v>2448</v>
+        <v>2251</v>
       </c>
       <c r="E940" t="s">
-        <v>2462</v>
+        <v>2252</v>
       </c>
       <c r="G940" t="s">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="O940" s="3"/>
       <c r="P940" s="3"/>
@@ -39920,16 +39924,16 @@
     </row>
     <row r="941" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A941">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B941" t="s">
-        <v>2449</v>
+        <v>2410</v>
       </c>
       <c r="E941" t="s">
-        <v>2462</v>
+        <v>2512</v>
       </c>
       <c r="G941" t="s">
-        <v>2460</v>
+        <v>2511</v>
       </c>
       <c r="O941" s="3"/>
       <c r="P941" s="3"/>
@@ -39938,16 +39942,19 @@
     </row>
     <row r="942" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A942">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B942" t="s">
-        <v>2450</v>
+        <v>2409</v>
       </c>
       <c r="E942" t="s">
-        <v>2462</v>
+        <v>2512</v>
+      </c>
+      <c r="F942">
+        <v>925</v>
       </c>
       <c r="G942" t="s">
-        <v>2460</v>
+        <v>2511</v>
       </c>
       <c r="O942" s="3"/>
       <c r="P942" s="3"/>
@@ -39956,16 +39963,19 @@
     </row>
     <row r="943" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A943">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B943" t="s">
-        <v>2451</v>
+        <v>2408</v>
       </c>
       <c r="E943" t="s">
-        <v>2462</v>
+        <v>2512</v>
+      </c>
+      <c r="F943">
+        <v>925</v>
       </c>
       <c r="G943" t="s">
-        <v>2460</v>
+        <v>2511</v>
       </c>
       <c r="O943" s="3"/>
       <c r="P943" s="3"/>
@@ -39974,10 +39984,10 @@
     </row>
     <row r="944" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A944">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B944" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="E944" t="s">
         <v>2462</v>
@@ -39992,10 +40002,10 @@
     </row>
     <row r="945" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A945">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B945" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="E945" t="s">
         <v>2462</v>
@@ -40010,10 +40020,10 @@
     </row>
     <row r="946" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A946">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B946" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="E946" t="s">
         <v>2462</v>
@@ -40028,10 +40038,10 @@
     </row>
     <row r="947" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A947">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B947" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="E947" t="s">
         <v>2462</v>
@@ -40046,10 +40056,10 @@
     </row>
     <row r="948" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A948">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B948" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="E948" t="s">
         <v>2462</v>
@@ -40064,10 +40074,10 @@
     </row>
     <row r="949" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A949">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B949" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="E949" t="s">
         <v>2462</v>
@@ -40082,10 +40092,10 @@
     </row>
     <row r="950" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A950">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B950" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="E950" t="s">
         <v>2462</v>
@@ -40100,10 +40110,10 @@
     </row>
     <row r="951" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A951">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B951" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="E951" t="s">
         <v>2462</v>
@@ -40118,10 +40128,10 @@
     </row>
     <row r="952" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A952">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B952" t="s">
-        <v>2470</v>
+        <v>2456</v>
       </c>
       <c r="E952" t="s">
         <v>2462</v>
@@ -40136,10 +40146,10 @@
     </row>
     <row r="953" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A953">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B953" t="s">
-        <v>2471</v>
+        <v>2457</v>
       </c>
       <c r="E953" t="s">
         <v>2462</v>
@@ -40154,10 +40164,10 @@
     </row>
     <row r="954" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A954">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B954" t="s">
-        <v>2472</v>
+        <v>2458</v>
       </c>
       <c r="E954" t="s">
         <v>2462</v>
@@ -40172,10 +40182,10 @@
     </row>
     <row r="955" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A955">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B955" t="s">
-        <v>2473</v>
+        <v>2459</v>
       </c>
       <c r="E955" t="s">
         <v>2462</v>
@@ -40190,10 +40200,10 @@
     </row>
     <row r="956" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A956">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B956" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="E956" t="s">
         <v>2462</v>
@@ -40208,16 +40218,16 @@
     </row>
     <row r="957" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A957">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B957" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="E957" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="G957" t="s">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="O957" s="3"/>
       <c r="P957" s="3"/>
@@ -40226,16 +40236,16 @@
     </row>
     <row r="958" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A958">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B958" t="s">
-        <v>2407</v>
+        <v>2472</v>
       </c>
       <c r="E958" t="s">
-        <v>2488</v>
+        <v>2462</v>
       </c>
       <c r="G958" t="s">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="O958" s="3"/>
       <c r="P958" s="3"/>
@@ -40244,16 +40254,16 @@
     </row>
     <row r="959" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A959">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B959" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="E959" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="G959" t="s">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="O959" s="3"/>
       <c r="P959" s="3"/>
@@ -40262,24 +40272,28 @@
     </row>
     <row r="960" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A960">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B960" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="E960" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="G960" t="s">
-        <v>2475</v>
-      </c>
+        <v>2460</v>
+      </c>
+      <c r="O960" s="3"/>
+      <c r="P960" s="3"/>
+      <c r="Q960" s="3"/>
+      <c r="R960" s="3"/>
     </row>
     <row r="961" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A961">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B961" t="s">
-        <v>2464</v>
+        <v>2478</v>
       </c>
       <c r="E961" t="s">
         <v>2476</v>
@@ -40294,13 +40308,13 @@
     </row>
     <row r="962" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A962">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B962" t="s">
-        <v>2479</v>
+        <v>2407</v>
       </c>
       <c r="E962" t="s">
-        <v>2476</v>
+        <v>2488</v>
       </c>
       <c r="G962" t="s">
         <v>2475</v>
@@ -40312,10 +40326,10 @@
     </row>
     <row r="963" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A963">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B963" t="s">
-        <v>2480</v>
+        <v>2463</v>
       </c>
       <c r="E963" t="s">
         <v>2476</v>
@@ -40330,10 +40344,10 @@
     </row>
     <row r="964" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A964">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B964" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="E964" t="s">
         <v>2476</v>
@@ -40341,17 +40355,13 @@
       <c r="G964" t="s">
         <v>2475</v>
       </c>
-      <c r="O964" s="3"/>
-      <c r="P964" s="3"/>
-      <c r="Q964" s="3"/>
-      <c r="R964" s="3"/>
     </row>
     <row r="965" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A965">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B965" t="s">
-        <v>2482</v>
+        <v>2464</v>
       </c>
       <c r="E965" t="s">
         <v>2476</v>
@@ -40366,16 +40376,16 @@
     </row>
     <row r="966" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A966">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B966" t="s">
-        <v>2469</v>
+        <v>2479</v>
       </c>
       <c r="E966" t="s">
-        <v>2508</v>
+        <v>2476</v>
       </c>
       <c r="G966" t="s">
-        <v>2509</v>
+        <v>2475</v>
       </c>
       <c r="O966" s="3"/>
       <c r="P966" s="3"/>
@@ -40384,19 +40394,16 @@
     </row>
     <row r="967" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A967">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B967" t="s">
-        <v>2496</v>
-      </c>
-      <c r="D967">
-        <v>1</v>
+        <v>2480</v>
       </c>
       <c r="E967" t="s">
-        <v>2494</v>
+        <v>2476</v>
       </c>
       <c r="G967" t="s">
-        <v>2495</v>
+        <v>2475</v>
       </c>
       <c r="O967" s="3"/>
       <c r="P967" s="3"/>
@@ -40405,19 +40412,16 @@
     </row>
     <row r="968" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A968">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B968" t="s">
-        <v>2497</v>
-      </c>
-      <c r="D968">
-        <v>1</v>
+        <v>2481</v>
       </c>
       <c r="E968" t="s">
-        <v>2494</v>
+        <v>2476</v>
       </c>
       <c r="G968" t="s">
-        <v>2495</v>
+        <v>2475</v>
       </c>
       <c r="O968" s="3"/>
       <c r="P968" s="3"/>
@@ -40426,19 +40430,16 @@
     </row>
     <row r="969" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A969">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B969" t="s">
-        <v>2498</v>
-      </c>
-      <c r="D969">
-        <v>1</v>
+        <v>2482</v>
       </c>
       <c r="E969" t="s">
-        <v>2494</v>
+        <v>2476</v>
       </c>
       <c r="G969" t="s">
-        <v>2495</v>
+        <v>2475</v>
       </c>
       <c r="O969" s="3"/>
       <c r="P969" s="3"/>
@@ -40447,19 +40448,16 @@
     </row>
     <row r="970" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A970">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B970" t="s">
-        <v>2499</v>
-      </c>
-      <c r="D970">
-        <v>1</v>
+        <v>2469</v>
       </c>
       <c r="E970" t="s">
-        <v>2494</v>
+        <v>2508</v>
       </c>
       <c r="G970" t="s">
-        <v>2495</v>
+        <v>2509</v>
       </c>
       <c r="O970" s="3"/>
       <c r="P970" s="3"/>
@@ -40468,10 +40466,10 @@
     </row>
     <row r="971" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A971">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B971" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="D971">
         <v>1</v>
@@ -40489,10 +40487,10 @@
     </row>
     <row r="972" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A972">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B972" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D972">
         <v>1</v>
@@ -40510,10 +40508,10 @@
     </row>
     <row r="973" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A973">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B973" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="D973">
         <v>1</v>
@@ -40531,10 +40529,10 @@
     </row>
     <row r="974" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A974">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B974" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="D974">
         <v>1</v>
@@ -40552,10 +40550,10 @@
     </row>
     <row r="975" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A975">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B975" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="D975">
         <v>1</v>
@@ -40573,10 +40571,10 @@
     </row>
     <row r="976" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A976">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B976" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D976">
         <v>1</v>
@@ -40594,10 +40592,10 @@
     </row>
     <row r="977" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A977">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B977" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="D977">
         <v>1</v>
@@ -40615,10 +40613,10 @@
     </row>
     <row r="978" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A978">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B978" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D978">
         <v>1</v>
@@ -40636,10 +40634,10 @@
     </row>
     <row r="979" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A979">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B979" t="s">
-        <v>2492</v>
+        <v>2504</v>
       </c>
       <c r="D979">
         <v>1</v>
@@ -40657,10 +40655,10 @@
     </row>
     <row r="980" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A980">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B980" t="s">
-        <v>2493</v>
+        <v>2505</v>
       </c>
       <c r="D980">
         <v>1</v>
@@ -40678,16 +40676,19 @@
     </row>
     <row r="981" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A981">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B981" t="s">
-        <v>2485</v>
+        <v>2506</v>
       </c>
       <c r="D981">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E981" t="s">
-        <v>2537</v>
+        <v>2494</v>
+      </c>
+      <c r="G981" t="s">
+        <v>2495</v>
       </c>
       <c r="O981" s="3"/>
       <c r="P981" s="3"/>
@@ -40696,16 +40697,19 @@
     </row>
     <row r="982" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A982">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B982" t="s">
-        <v>2486</v>
+        <v>2507</v>
       </c>
       <c r="D982">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E982" t="s">
-        <v>2537</v>
+        <v>2494</v>
+      </c>
+      <c r="G982" t="s">
+        <v>2495</v>
       </c>
       <c r="O982" s="3"/>
       <c r="P982" s="3"/>
@@ -40713,8 +40717,20 @@
       <c r="R982" s="3"/>
     </row>
     <row r="983" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>963</v>
+      </c>
       <c r="B983" t="s">
-        <v>2539</v>
+        <v>2492</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983" t="s">
+        <v>2494</v>
+      </c>
+      <c r="G983" t="s">
+        <v>2495</v>
       </c>
       <c r="O983" s="3"/>
       <c r="P983" s="3"/>
@@ -40722,8 +40738,20 @@
       <c r="R983" s="3"/>
     </row>
     <row r="984" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>964</v>
+      </c>
       <c r="B984" t="s">
-        <v>2540</v>
+        <v>2493</v>
+      </c>
+      <c r="D984">
+        <v>1</v>
+      </c>
+      <c r="E984" t="s">
+        <v>2494</v>
+      </c>
+      <c r="G984" t="s">
+        <v>2495</v>
       </c>
       <c r="O984" s="3"/>
       <c r="P984" s="3"/>
@@ -40731,8 +40759,17 @@
       <c r="R984" s="3"/>
     </row>
     <row r="985" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>965</v>
+      </c>
       <c r="B985" t="s">
-        <v>2541</v>
+        <v>2485</v>
+      </c>
+      <c r="D985">
+        <v>-1</v>
+      </c>
+      <c r="E985" t="s">
+        <v>2537</v>
       </c>
       <c r="O985" s="3"/>
       <c r="P985" s="3"/>
@@ -40740,8 +40777,17 @@
       <c r="R985" s="3"/>
     </row>
     <row r="986" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>965</v>
+      </c>
       <c r="B986" t="s">
-        <v>2542</v>
+        <v>2486</v>
+      </c>
+      <c r="D986">
+        <v>-1</v>
+      </c>
+      <c r="E986" t="s">
+        <v>2537</v>
       </c>
       <c r="O986" s="3"/>
       <c r="P986" s="3"/>
@@ -40750,7 +40796,7 @@
     </row>
     <row r="987" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B987" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="O987" s="3"/>
       <c r="P987" s="3"/>
@@ -40759,7 +40805,7 @@
     </row>
     <row r="988" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B988" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="O988" s="3"/>
       <c r="P988" s="3"/>
@@ -40768,7 +40814,7 @@
     </row>
     <row r="989" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B989" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="O989" s="3"/>
       <c r="P989" s="3"/>
@@ -40776,72 +40822,60 @@
       <c r="R989" s="3"/>
     </row>
     <row r="990" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B990" t="s">
+        <v>2542</v>
+      </c>
       <c r="O990" s="3"/>
       <c r="P990" s="3"/>
       <c r="Q990" s="3"/>
       <c r="R990" s="3"/>
     </row>
     <row r="991" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B991" t="s">
+        <v>2543</v>
+      </c>
       <c r="O991" s="3"/>
       <c r="P991" s="3"/>
       <c r="Q991" s="3"/>
       <c r="R991" s="3"/>
     </row>
     <row r="992" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B992" t="s">
+        <v>2544</v>
+      </c>
       <c r="O992" s="3"/>
       <c r="P992" s="3"/>
       <c r="Q992" s="3"/>
       <c r="R992" s="3"/>
     </row>
     <row r="993" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B993" t="s">
+        <v>2545</v>
+      </c>
       <c r="O993" s="3"/>
       <c r="P993" s="3"/>
       <c r="Q993" s="3"/>
       <c r="R993" s="3"/>
     </row>
     <row r="994" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B994" t="s">
-        <v>2546</v>
-      </c>
-      <c r="E994" t="s">
-        <v>2490</v>
-      </c>
       <c r="O994" s="3"/>
       <c r="P994" s="3"/>
       <c r="Q994" s="3"/>
       <c r="R994" s="3"/>
     </row>
     <row r="995" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B995" t="s">
-        <v>2547</v>
-      </c>
-      <c r="E995" t="s">
-        <v>2490</v>
-      </c>
       <c r="O995" s="3"/>
       <c r="P995" s="3"/>
       <c r="Q995" s="3"/>
       <c r="R995" s="3"/>
     </row>
     <row r="996" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B996" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E996" t="s">
-        <v>2490</v>
-      </c>
       <c r="O996" s="3"/>
       <c r="P996" s="3"/>
       <c r="Q996" s="3"/>
       <c r="R996" s="3"/>
     </row>
     <row r="997" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B997" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E997" t="s">
-        <v>2559</v>
-      </c>
       <c r="O997" s="3"/>
       <c r="P997" s="3"/>
       <c r="Q997" s="3"/>
@@ -40849,10 +40883,10 @@
     </row>
     <row r="998" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B998" t="s">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="E998" t="s">
-        <v>2559</v>
+        <v>2490</v>
       </c>
       <c r="O998" s="3"/>
       <c r="P998" s="3"/>
@@ -40861,10 +40895,10 @@
     </row>
     <row r="999" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B999" t="s">
-        <v>2557</v>
+        <v>2547</v>
       </c>
       <c r="E999" t="s">
-        <v>2559</v>
+        <v>2490</v>
       </c>
       <c r="O999" s="3"/>
       <c r="P999" s="3"/>
@@ -40873,10 +40907,10 @@
     </row>
     <row r="1000" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1000" t="s">
-        <v>2558</v>
+        <v>2405</v>
       </c>
       <c r="E1000" t="s">
-        <v>2559</v>
+        <v>2490</v>
       </c>
       <c r="O1000" s="3"/>
       <c r="P1000" s="3"/>
@@ -40885,7 +40919,10 @@
     </row>
     <row r="1001" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1001" t="s">
-        <v>2560</v>
+        <v>2555</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>2559</v>
       </c>
       <c r="O1001" s="3"/>
       <c r="P1001" s="3"/>
@@ -40894,7 +40931,10 @@
     </row>
     <row r="1002" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1002" t="s">
-        <v>2561</v>
+        <v>2556</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>2559</v>
       </c>
       <c r="O1002" s="3"/>
       <c r="P1002" s="3"/>
@@ -40903,7 +40943,10 @@
     </row>
     <row r="1003" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1003" t="s">
-        <v>2562</v>
+        <v>2557</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>2559</v>
       </c>
       <c r="O1003" s="3"/>
       <c r="P1003" s="3"/>
@@ -40912,7 +40955,10 @@
     </row>
     <row r="1004" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1004" t="s">
-        <v>2563</v>
+        <v>2558</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>2559</v>
       </c>
       <c r="O1004" s="3"/>
       <c r="P1004" s="3"/>
@@ -40921,7 +40967,7 @@
     </row>
     <row r="1005" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1005" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="O1005" s="3"/>
       <c r="P1005" s="3"/>
@@ -40929,114 +40975,126 @@
       <c r="R1005" s="3"/>
     </row>
     <row r="1006" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1006" t="s">
+        <v>2561</v>
+      </c>
       <c r="O1006" s="3"/>
       <c r="P1006" s="3"/>
       <c r="Q1006" s="3"/>
       <c r="R1006" s="3"/>
     </row>
     <row r="1007" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1007" t="s">
+        <v>2562</v>
+      </c>
       <c r="O1007" s="3"/>
       <c r="P1007" s="3"/>
       <c r="Q1007" s="3"/>
       <c r="R1007" s="3"/>
     </row>
     <row r="1008" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1008" t="s">
+        <v>2563</v>
+      </c>
       <c r="O1008" s="3"/>
       <c r="P1008" s="3"/>
       <c r="Q1008" s="3"/>
       <c r="R1008" s="3"/>
     </row>
-    <row r="1009" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1009" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1009" t="s">
+        <v>2564</v>
+      </c>
       <c r="O1009" s="3"/>
       <c r="P1009" s="3"/>
       <c r="Q1009" s="3"/>
       <c r="R1009" s="3"/>
     </row>
-    <row r="1010" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1010" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1010" s="3"/>
       <c r="P1010" s="3"/>
       <c r="Q1010" s="3"/>
       <c r="R1010" s="3"/>
     </row>
-    <row r="1011" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1011" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1011" s="3"/>
       <c r="P1011" s="3"/>
       <c r="Q1011" s="3"/>
       <c r="R1011" s="3"/>
     </row>
-    <row r="1012" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1012" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1012" s="3"/>
       <c r="P1012" s="3"/>
       <c r="Q1012" s="3"/>
       <c r="R1012" s="3"/>
     </row>
-    <row r="1013" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1013" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1013" s="3"/>
       <c r="P1013" s="3"/>
       <c r="Q1013" s="3"/>
       <c r="R1013" s="3"/>
     </row>
-    <row r="1014" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1014" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1014" s="3"/>
       <c r="P1014" s="3"/>
       <c r="Q1014" s="3"/>
       <c r="R1014" s="3"/>
     </row>
-    <row r="1015" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1015" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1015" s="3"/>
       <c r="P1015" s="3"/>
       <c r="Q1015" s="3"/>
       <c r="R1015" s="3"/>
     </row>
-    <row r="1016" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1016" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1016" s="3"/>
       <c r="P1016" s="3"/>
       <c r="Q1016" s="3"/>
       <c r="R1016" s="3"/>
     </row>
-    <row r="1017" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1017" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1017" s="3"/>
       <c r="P1017" s="3"/>
       <c r="Q1017" s="3"/>
       <c r="R1017" s="3"/>
     </row>
-    <row r="1018" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1018" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1018" s="3"/>
       <c r="P1018" s="3"/>
       <c r="Q1018" s="3"/>
       <c r="R1018" s="3"/>
     </row>
-    <row r="1019" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1019" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1019" s="3"/>
       <c r="P1019" s="3"/>
       <c r="Q1019" s="3"/>
       <c r="R1019" s="3"/>
     </row>
-    <row r="1020" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1020" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1020" s="3"/>
       <c r="P1020" s="3"/>
       <c r="Q1020" s="3"/>
       <c r="R1020" s="3"/>
     </row>
-    <row r="1021" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1021" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1021" s="3"/>
       <c r="P1021" s="3"/>
       <c r="Q1021" s="3"/>
       <c r="R1021" s="3"/>
     </row>
-    <row r="1022" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1022" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1022" s="3"/>
       <c r="P1022" s="3"/>
       <c r="Q1022" s="3"/>
       <c r="R1022" s="3"/>
     </row>
-    <row r="1023" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1023" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1023" s="3"/>
       <c r="P1023" s="3"/>
       <c r="Q1023" s="3"/>
       <c r="R1023" s="3"/>
     </row>
-    <row r="1024" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1024" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O1024" s="3"/>
       <c r="P1024" s="3"/>
       <c r="Q1024" s="3"/>
@@ -43316,60 +43374,84 @@
       <c r="Q1403" s="3"/>
       <c r="R1403" s="3"/>
     </row>
+    <row r="1404" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1404" s="3"/>
+      <c r="P1404" s="3"/>
+      <c r="Q1404" s="3"/>
+      <c r="R1404" s="3"/>
+    </row>
+    <row r="1405" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1405" s="3"/>
+      <c r="P1405" s="3"/>
+      <c r="Q1405" s="3"/>
+      <c r="R1405" s="3"/>
+    </row>
+    <row r="1406" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1406" s="3"/>
+      <c r="P1406" s="3"/>
+      <c r="Q1406" s="3"/>
+      <c r="R1406" s="3"/>
+    </row>
+    <row r="1407" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1407" s="3"/>
+      <c r="P1407" s="3"/>
+      <c r="Q1407" s="3"/>
+      <c r="R1407" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1006:B1048576 B1001:B1004 B937 B902 B935 B904:B916 B939:B944 B950 B931 B1:B855 B952:B956 B960 B920:B929 B918 B967:B980 B859:B865 B870:B895 B867:B868 B983:B999">
+  <conditionalFormatting sqref="B1010:B1048576 B1005:B1008 B941 B906 B939 B908:B920 B943:B948 B954 B935 B1:B859 B956:B960 B964 B924:B933 B922 B971:B984 B863:B869 B874:B899 B871:B872 B987:B1003">
     <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B938">
+  <conditionalFormatting sqref="B942">
     <cfRule type="duplicateValues" dxfId="16" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B938">
+  <conditionalFormatting sqref="B942">
     <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B937">
+  <conditionalFormatting sqref="B941">
     <cfRule type="duplicateValues" dxfId="14" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B932:B934">
+  <conditionalFormatting sqref="B936:B938">
     <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B945:B947">
+  <conditionalFormatting sqref="B949:B951">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B948:B949">
+  <conditionalFormatting sqref="B952:B953">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B856">
+  <conditionalFormatting sqref="B860">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B858">
+  <conditionalFormatting sqref="B862">
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B857">
+  <conditionalFormatting sqref="B861">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B951">
+  <conditionalFormatting sqref="B955">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B957">
+  <conditionalFormatting sqref="B961">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B962:B963 B965">
+  <conditionalFormatting sqref="B966:B967 B969">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B964">
+  <conditionalFormatting sqref="B968">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K960:XFD960">
+  <conditionalFormatting sqref="K964:XFD964">
     <cfRule type="duplicateValues" dxfId="3" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B919">
+  <conditionalFormatting sqref="B923">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B917">
+  <conditionalFormatting sqref="B921">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B981:B982">
+  <conditionalFormatting sqref="B985:B986">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/자격증 종류 4. certList.xlsx
+++ b/자격증 종류 4. certList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5827" uniqueCount="2583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="2584">
   <si>
     <t>id</t>
   </si>
@@ -8146,6 +8146,10 @@
   </si>
   <si>
     <t>TAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전가능자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8854,11 +8858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1421"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A859" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B872" sqref="B872"/>
+      <pane ySplit="1" topLeftCell="A886" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D897" sqref="D897:E897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39376,13 +39380,13 @@
         <v>880</v>
       </c>
       <c r="B897" t="s">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="D897">
         <v>1</v>
       </c>
       <c r="E897" t="s">
-        <v>1973</v>
+        <v>1779</v>
       </c>
       <c r="P897" s="3"/>
       <c r="Q897" s="3"/>
@@ -39390,10 +39394,10 @@
     </row>
     <row r="898" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A898">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B898" t="s">
-        <v>1975</v>
+        <v>2573</v>
       </c>
       <c r="D898">
         <v>1</v>
@@ -39407,13 +39411,16 @@
     </row>
     <row r="899" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A899">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B899" t="s">
-        <v>2383</v>
+        <v>1975</v>
+      </c>
+      <c r="D899">
+        <v>1</v>
       </c>
       <c r="E899" t="s">
-        <v>2410</v>
+        <v>1973</v>
       </c>
       <c r="P899" s="3"/>
       <c r="Q899" s="3"/>
@@ -39421,13 +39428,13 @@
     </row>
     <row r="900" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A900">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B900" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E900" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="P900" s="3"/>
       <c r="Q900" s="3"/>
@@ -39435,13 +39442,13 @@
     </row>
     <row r="901" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A901">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B901" t="s">
-        <v>2413</v>
+        <v>2384</v>
       </c>
       <c r="E901" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="P901" s="3"/>
       <c r="Q901" s="3"/>
@@ -39449,16 +39456,13 @@
     </row>
     <row r="902" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A902">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B902" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E902" t="s">
         <v>2412</v>
-      </c>
-      <c r="F902">
-        <v>886</v>
       </c>
       <c r="P902" s="3"/>
       <c r="Q902" s="3"/>
@@ -39466,10 +39470,10 @@
     </row>
     <row r="903" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A903">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B903" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E903" t="s">
         <v>2412</v>
@@ -39483,10 +39487,10 @@
     </row>
     <row r="904" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A904">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B904" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E904" t="s">
         <v>2412</v>
@@ -39500,10 +39504,10 @@
     </row>
     <row r="905" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A905">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B905" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E905" t="s">
         <v>2412</v>
@@ -39517,10 +39521,10 @@
     </row>
     <row r="906" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A906">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B906" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E906" t="s">
         <v>2412</v>
@@ -39534,13 +39538,16 @@
     </row>
     <row r="907" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A907">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B907" t="s">
-        <v>2551</v>
+        <v>2418</v>
       </c>
       <c r="E907" t="s">
-        <v>2421</v>
+        <v>2412</v>
+      </c>
+      <c r="F907">
+        <v>886</v>
       </c>
       <c r="P907" s="3"/>
       <c r="Q907" s="3"/>
@@ -39551,10 +39558,10 @@
         <v>892</v>
       </c>
       <c r="B908" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E908" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="P908" s="3"/>
       <c r="Q908" s="3"/>
@@ -39565,7 +39572,7 @@
         <v>892</v>
       </c>
       <c r="B909" t="s">
-        <v>2419</v>
+        <v>2552</v>
       </c>
       <c r="E909" t="s">
         <v>2422</v>
@@ -39576,13 +39583,13 @@
     </row>
     <row r="910" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A910">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B910" t="s">
-        <v>2553</v>
+        <v>2419</v>
       </c>
       <c r="E910" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="P910" s="3"/>
       <c r="Q910" s="3"/>
@@ -39593,7 +39600,7 @@
         <v>893</v>
       </c>
       <c r="B911" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="E911" t="s">
         <v>2421</v>
@@ -39607,18 +39614,24 @@
         <v>893</v>
       </c>
       <c r="B912" t="s">
-        <v>2420</v>
+        <v>2550</v>
       </c>
       <c r="E912" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="P912" s="3"/>
       <c r="Q912" s="3"/>
       <c r="R912" s="3"/>
     </row>
     <row r="913" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>893</v>
+      </c>
       <c r="B913" t="s">
-        <v>2574</v>
+        <v>2420</v>
+      </c>
+      <c r="E913" t="s">
+        <v>2422</v>
       </c>
       <c r="P913" s="3"/>
       <c r="Q913" s="3"/>
@@ -39626,7 +39639,7 @@
     </row>
     <row r="914" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B914" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="P914" s="3"/>
       <c r="Q914" s="3"/>
@@ -39634,7 +39647,7 @@
     </row>
     <row r="915" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B915" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="P915" s="3"/>
       <c r="Q915" s="3"/>
@@ -39642,7 +39655,7 @@
     </row>
     <row r="916" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B916" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="P916" s="3"/>
       <c r="Q916" s="3"/>
@@ -39650,7 +39663,7 @@
     </row>
     <row r="917" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B917" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="P917" s="3"/>
       <c r="Q917" s="3"/>
@@ -39658,21 +39671,15 @@
     </row>
     <row r="918" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B918" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="P918" s="3"/>
       <c r="Q918" s="3"/>
       <c r="R918" s="3"/>
     </row>
     <row r="919" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A919">
-        <v>894</v>
-      </c>
       <c r="B919" t="s">
-        <v>2385</v>
-      </c>
-      <c r="E919" s="4" t="s">
-        <v>2423</v>
+        <v>2577</v>
       </c>
       <c r="P919" s="3"/>
       <c r="Q919" s="3"/>
@@ -39680,16 +39687,13 @@
     </row>
     <row r="920" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A920">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B920" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E920" t="s">
-        <v>2428</v>
-      </c>
-      <c r="G920" t="s">
-        <v>2427</v>
+        <v>2385</v>
+      </c>
+      <c r="E920" s="4" t="s">
+        <v>2423</v>
       </c>
       <c r="P920" s="3"/>
       <c r="Q920" s="3"/>
@@ -39697,16 +39701,16 @@
     </row>
     <row r="921" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A921">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B921" t="s">
-        <v>2424</v>
+        <v>2405</v>
       </c>
       <c r="E921" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="G921" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="P921" s="3"/>
       <c r="Q921" s="3"/>
@@ -39714,16 +39718,13 @@
     </row>
     <row r="922" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A922">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B922" t="s">
-        <v>2386</v>
+        <v>2424</v>
       </c>
       <c r="E922" t="s">
         <v>2425</v>
-      </c>
-      <c r="F922">
-        <v>896</v>
       </c>
       <c r="G922" t="s">
         <v>2426</v>
@@ -39734,16 +39735,19 @@
     </row>
     <row r="923" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A923">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B923" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E923" t="s">
-        <v>2430</v>
+        <v>2425</v>
+      </c>
+      <c r="F923">
+        <v>896</v>
       </c>
       <c r="G923" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="P923" s="3"/>
       <c r="Q923" s="3"/>
@@ -39751,13 +39755,16 @@
     </row>
     <row r="924" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A924">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B924" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="E924" t="s">
-        <v>2490</v>
+        <v>2430</v>
+      </c>
+      <c r="G924" t="s">
+        <v>2429</v>
       </c>
       <c r="P924" s="3"/>
       <c r="Q924" s="3"/>
@@ -39765,16 +39772,13 @@
     </row>
     <row r="925" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A925">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B925" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E925" t="s">
-        <v>2442</v>
-      </c>
-      <c r="G925" t="s">
-        <v>2443</v>
+        <v>2490</v>
       </c>
       <c r="P925" s="3"/>
       <c r="Q925" s="3"/>
@@ -39782,16 +39786,16 @@
     </row>
     <row r="926" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A926">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B926" t="s">
-        <v>2401</v>
+        <v>2390</v>
       </c>
       <c r="E926" t="s">
-        <v>1778</v>
+        <v>2442</v>
       </c>
       <c r="G926" t="s">
-        <v>2515</v>
+        <v>2443</v>
       </c>
       <c r="P926" s="3"/>
       <c r="Q926" s="3"/>
@@ -39799,13 +39803,13 @@
     </row>
     <row r="927" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A927">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B927" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="E927" t="s">
-        <v>2431</v>
+        <v>1778</v>
       </c>
       <c r="G927" t="s">
         <v>2515</v>
@@ -39816,13 +39820,13 @@
     </row>
     <row r="928" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A928">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B928" t="s">
-        <v>2388</v>
+        <v>2398</v>
       </c>
       <c r="E928" t="s">
-        <v>1778</v>
+        <v>2431</v>
       </c>
       <c r="G928" t="s">
         <v>2515</v>
@@ -39836,10 +39840,10 @@
         <v>903</v>
       </c>
       <c r="B929" t="s">
-        <v>2570</v>
+        <v>2388</v>
       </c>
       <c r="E929" t="s">
-        <v>2431</v>
+        <v>1778</v>
       </c>
       <c r="G929" t="s">
         <v>2515</v>
@@ -39850,16 +39854,16 @@
     </row>
     <row r="930" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A930">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B930" t="s">
-        <v>2397</v>
+        <v>2570</v>
       </c>
       <c r="E930" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="G930" t="s">
-        <v>2432</v>
+        <v>2515</v>
       </c>
       <c r="P930" s="3"/>
       <c r="Q930" s="3"/>
@@ -39867,10 +39871,10 @@
     </row>
     <row r="931" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A931">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B931" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="E931" t="s">
         <v>2433</v>
@@ -39884,10 +39888,10 @@
     </row>
     <row r="932" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A932">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B932" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="E932" t="s">
         <v>2433</v>
@@ -39901,10 +39905,10 @@
     </row>
     <row r="933" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A933">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B933" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="E933" t="s">
         <v>2433</v>
@@ -39918,16 +39922,16 @@
     </row>
     <row r="934" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A934">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B934" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
       <c r="E934" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="G934" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="P934" s="3"/>
       <c r="Q934" s="3"/>
@@ -39935,10 +39939,10 @@
     </row>
     <row r="935" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A935">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B935" t="s">
-        <v>2436</v>
+        <v>2399</v>
       </c>
       <c r="E935" t="s">
         <v>2434</v>
@@ -39955,7 +39959,7 @@
         <v>909</v>
       </c>
       <c r="B936" t="s">
-        <v>2483</v>
+        <v>2436</v>
       </c>
       <c r="E936" t="s">
         <v>2434</v>
@@ -39969,10 +39973,10 @@
     </row>
     <row r="937" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A937">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B937" t="s">
-        <v>2437</v>
+        <v>2483</v>
       </c>
       <c r="E937" t="s">
         <v>2434</v>
@@ -39989,7 +39993,7 @@
         <v>910</v>
       </c>
       <c r="B938" t="s">
-        <v>2482</v>
+        <v>2437</v>
       </c>
       <c r="E938" t="s">
         <v>2434</v>
@@ -40003,10 +40007,10 @@
     </row>
     <row r="939" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A939">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B939" t="s">
-        <v>2438</v>
+        <v>2482</v>
       </c>
       <c r="E939" t="s">
         <v>2434</v>
@@ -40020,10 +40024,10 @@
     </row>
     <row r="940" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A940">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B940" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E940" t="s">
         <v>2434</v>
@@ -40037,10 +40041,10 @@
     </row>
     <row r="941" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A941">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B941" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E941" t="s">
         <v>2434</v>
@@ -40054,10 +40058,10 @@
     </row>
     <row r="942" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A942">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B942" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E942" t="s">
         <v>2434</v>
@@ -40071,10 +40075,10 @@
     </row>
     <row r="943" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A943">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B943" t="s">
-        <v>2400</v>
+        <v>2441</v>
       </c>
       <c r="E943" t="s">
         <v>2434</v>
@@ -40088,16 +40092,16 @@
     </row>
     <row r="944" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A944">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B944" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="E944" t="s">
-        <v>2486</v>
+        <v>2434</v>
       </c>
       <c r="G944" t="s">
-        <v>2514</v>
+        <v>2435</v>
       </c>
       <c r="P944" s="3"/>
       <c r="Q944" s="3"/>
@@ -40105,10 +40109,10 @@
     </row>
     <row r="945" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A945">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B945" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E945" t="s">
         <v>2486</v>
@@ -40122,16 +40126,16 @@
     </row>
     <row r="946" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A946">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B946" t="s">
-        <v>2403</v>
+        <v>2393</v>
       </c>
       <c r="E946" t="s">
-        <v>2461</v>
+        <v>2486</v>
       </c>
       <c r="G946" t="s">
-        <v>2459</v>
+        <v>2514</v>
       </c>
       <c r="P946" s="3"/>
       <c r="Q946" s="3"/>
@@ -40139,10 +40143,10 @@
     </row>
     <row r="947" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A947">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B947" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="E947" t="s">
         <v>2461</v>
@@ -40156,7 +40160,16 @@
     </row>
     <row r="948" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A948">
-        <v>920</v>
+        <v>919</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G948" t="s">
+        <v>2459</v>
       </c>
       <c r="P948" s="3"/>
       <c r="Q948" s="3"/>
@@ -40164,16 +40177,7 @@
     </row>
     <row r="949" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A949">
-        <v>921</v>
-      </c>
-      <c r="B949" t="s">
-        <v>2460</v>
-      </c>
-      <c r="E949" t="s">
-        <v>2488</v>
-      </c>
-      <c r="G949" t="s">
-        <v>2512</v>
+        <v>920</v>
       </c>
       <c r="P949" s="3"/>
       <c r="Q949" s="3"/>
@@ -40184,7 +40188,7 @@
         <v>921</v>
       </c>
       <c r="B950" t="s">
-        <v>2444</v>
+        <v>2460</v>
       </c>
       <c r="E950" t="s">
         <v>2488</v>
@@ -40198,16 +40202,13 @@
     </row>
     <row r="951" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A951">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B951" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E951" t="s">
         <v>2488</v>
-      </c>
-      <c r="F951">
-        <v>920</v>
       </c>
       <c r="G951" t="s">
         <v>2512</v>
@@ -40218,10 +40219,10 @@
     </row>
     <row r="952" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A952">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B952" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E952" t="s">
         <v>2488</v>
@@ -40238,10 +40239,19 @@
     </row>
     <row r="953" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A953">
-        <v>924</v>
+        <v>923</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F953">
+        <v>920</v>
       </c>
       <c r="G953" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="P953" s="3"/>
       <c r="Q953" s="3"/>
@@ -40249,34 +40259,27 @@
     </row>
     <row r="954" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A954">
-        <v>925</v>
-      </c>
-      <c r="B954" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E954" t="s">
-        <v>2251</v>
+        <v>924</v>
       </c>
       <c r="G954" t="s">
-        <v>2509</v>
-      </c>
-      <c r="O954" s="3"/>
+        <v>2513</v>
+      </c>
       <c r="P954" s="3"/>
       <c r="Q954" s="3"/>
       <c r="R954" s="3"/>
     </row>
     <row r="955" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A955">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B955" t="s">
-        <v>2409</v>
+        <v>2250</v>
       </c>
       <c r="E955" t="s">
-        <v>2511</v>
+        <v>2251</v>
       </c>
       <c r="G955" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O955" s="3"/>
       <c r="P955" s="3"/>
@@ -40285,16 +40288,13 @@
     </row>
     <row r="956" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A956">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B956" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="E956" t="s">
         <v>2511</v>
-      </c>
-      <c r="F956">
-        <v>925</v>
       </c>
       <c r="G956" t="s">
         <v>2510</v>
@@ -40306,10 +40306,10 @@
     </row>
     <row r="957" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A957">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B957" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="E957" t="s">
         <v>2511</v>
@@ -40327,16 +40327,19 @@
     </row>
     <row r="958" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A958">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B958" t="s">
-        <v>2447</v>
+        <v>2407</v>
       </c>
       <c r="E958" t="s">
-        <v>2461</v>
+        <v>2511</v>
+      </c>
+      <c r="F958">
+        <v>925</v>
       </c>
       <c r="G958" t="s">
-        <v>2459</v>
+        <v>2510</v>
       </c>
       <c r="O958" s="3"/>
       <c r="P958" s="3"/>
@@ -40345,10 +40348,10 @@
     </row>
     <row r="959" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A959">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B959" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E959" t="s">
         <v>2461</v>
@@ -40366,7 +40369,7 @@
         <v>930</v>
       </c>
       <c r="B960" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E960" t="s">
         <v>2461</v>
@@ -40381,10 +40384,10 @@
     </row>
     <row r="961" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A961">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B961" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E961" t="s">
         <v>2461</v>
@@ -40402,7 +40405,7 @@
         <v>931</v>
       </c>
       <c r="B962" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E962" t="s">
         <v>2461</v>
@@ -40417,10 +40420,10 @@
     </row>
     <row r="963" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A963">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B963" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E963" t="s">
         <v>2461</v>
@@ -40435,10 +40438,10 @@
     </row>
     <row r="964" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A964">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B964" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E964" t="s">
         <v>2461</v>
@@ -40453,10 +40456,10 @@
     </row>
     <row r="965" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A965">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B965" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E965" t="s">
         <v>2461</v>
@@ -40471,10 +40474,10 @@
     </row>
     <row r="966" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A966">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B966" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E966" t="s">
         <v>2461</v>
@@ -40489,10 +40492,10 @@
     </row>
     <row r="967" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A967">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B967" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E967" t="s">
         <v>2461</v>
@@ -40507,10 +40510,10 @@
     </row>
     <row r="968" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A968">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B968" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E968" t="s">
         <v>2461</v>
@@ -40525,10 +40528,10 @@
     </row>
     <row r="969" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A969">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B969" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E969" t="s">
         <v>2461</v>
@@ -40543,10 +40546,10 @@
     </row>
     <row r="970" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A970">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B970" t="s">
-        <v>2469</v>
+        <v>2458</v>
       </c>
       <c r="E970" t="s">
         <v>2461</v>
@@ -40561,10 +40564,10 @@
     </row>
     <row r="971" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A971">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B971" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E971" t="s">
         <v>2461</v>
@@ -40579,10 +40582,10 @@
     </row>
     <row r="972" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A972">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B972" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E972" t="s">
         <v>2461</v>
@@ -40597,10 +40600,10 @@
     </row>
     <row r="973" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A973">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B973" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E973" t="s">
         <v>2461</v>
@@ -40615,10 +40618,10 @@
     </row>
     <row r="974" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A974">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B974" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E974" t="s">
         <v>2461</v>
@@ -40633,16 +40636,16 @@
     </row>
     <row r="975" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A975">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B975" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="E975" t="s">
-        <v>2475</v>
+        <v>2461</v>
       </c>
       <c r="G975" t="s">
-        <v>2474</v>
+        <v>2459</v>
       </c>
       <c r="O975" s="3"/>
       <c r="P975" s="3"/>
@@ -40654,10 +40657,10 @@
         <v>944</v>
       </c>
       <c r="B976" t="s">
-        <v>2406</v>
+        <v>2477</v>
       </c>
       <c r="E976" t="s">
-        <v>2487</v>
+        <v>2475</v>
       </c>
       <c r="G976" t="s">
         <v>2474</v>
@@ -40672,10 +40675,10 @@
         <v>944</v>
       </c>
       <c r="B977" t="s">
-        <v>2462</v>
+        <v>2406</v>
       </c>
       <c r="E977" t="s">
-        <v>2475</v>
+        <v>2487</v>
       </c>
       <c r="G977" t="s">
         <v>2474</v>
@@ -40687,10 +40690,10 @@
     </row>
     <row r="978" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A978">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B978" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="E978" t="s">
         <v>2475</v>
@@ -40698,13 +40701,17 @@
       <c r="G978" t="s">
         <v>2474</v>
       </c>
+      <c r="O978" s="3"/>
+      <c r="P978" s="3"/>
+      <c r="Q978" s="3"/>
+      <c r="R978" s="3"/>
     </row>
     <row r="979" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>945</v>
       </c>
       <c r="B979" t="s">
-        <v>2463</v>
+        <v>2476</v>
       </c>
       <c r="E979" t="s">
         <v>2475</v>
@@ -40712,17 +40719,13 @@
       <c r="G979" t="s">
         <v>2474</v>
       </c>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
     </row>
     <row r="980" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A980">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B980" t="s">
-        <v>2478</v>
+        <v>2463</v>
       </c>
       <c r="E980" t="s">
         <v>2475</v>
@@ -40737,10 +40740,10 @@
     </row>
     <row r="981" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A981">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B981" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E981" t="s">
         <v>2475</v>
@@ -40755,10 +40758,10 @@
     </row>
     <row r="982" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A982">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B982" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E982" t="s">
         <v>2475</v>
@@ -40773,10 +40776,10 @@
     </row>
     <row r="983" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A983">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B983" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E983" t="s">
         <v>2475</v>
@@ -40791,16 +40794,16 @@
     </row>
     <row r="984" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A984">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B984" t="s">
-        <v>2468</v>
+        <v>2481</v>
       </c>
       <c r="E984" t="s">
-        <v>2507</v>
+        <v>2475</v>
       </c>
       <c r="G984" t="s">
-        <v>2508</v>
+        <v>2474</v>
       </c>
       <c r="O984" s="3"/>
       <c r="P984" s="3"/>
@@ -40809,19 +40812,16 @@
     </row>
     <row r="985" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A985">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B985" t="s">
-        <v>2495</v>
-      </c>
-      <c r="D985">
-        <v>1</v>
+        <v>2468</v>
       </c>
       <c r="E985" t="s">
-        <v>2493</v>
+        <v>2507</v>
       </c>
       <c r="G985" t="s">
-        <v>2494</v>
+        <v>2508</v>
       </c>
       <c r="O985" s="3"/>
       <c r="P985" s="3"/>
@@ -40830,10 +40830,10 @@
     </row>
     <row r="986" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A986">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B986" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D986">
         <v>1</v>
@@ -40851,10 +40851,10 @@
     </row>
     <row r="987" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A987">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B987" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D987">
         <v>1</v>
@@ -40872,10 +40872,10 @@
     </row>
     <row r="988" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A988">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B988" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D988">
         <v>1</v>
@@ -40893,10 +40893,10 @@
     </row>
     <row r="989" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A989">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B989" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D989">
         <v>1</v>
@@ -40914,10 +40914,10 @@
     </row>
     <row r="990" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A990">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B990" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D990">
         <v>1</v>
@@ -40935,10 +40935,10 @@
     </row>
     <row r="991" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A991">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B991" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D991">
         <v>1</v>
@@ -40956,10 +40956,10 @@
     </row>
     <row r="992" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A992">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B992" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D992">
         <v>1</v>
@@ -40977,10 +40977,10 @@
     </row>
     <row r="993" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A993">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B993" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D993">
         <v>1</v>
@@ -40998,10 +40998,10 @@
     </row>
     <row r="994" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A994">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B994" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D994">
         <v>1</v>
@@ -41019,10 +41019,10 @@
     </row>
     <row r="995" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A995">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B995" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D995">
         <v>1</v>
@@ -41040,10 +41040,10 @@
     </row>
     <row r="996" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A996">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B996" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D996">
         <v>1</v>
@@ -41061,10 +41061,10 @@
     </row>
     <row r="997" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A997">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B997" t="s">
-        <v>2491</v>
+        <v>2506</v>
       </c>
       <c r="D997">
         <v>1</v>
@@ -41082,10 +41082,10 @@
     </row>
     <row r="998" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A998">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B998" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D998">
         <v>1</v>
@@ -41103,16 +41103,19 @@
     </row>
     <row r="999" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A999">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B999" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="D999">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E999" t="s">
-        <v>2536</v>
+        <v>2493</v>
+      </c>
+      <c r="G999" t="s">
+        <v>2494</v>
       </c>
       <c r="O999" s="3"/>
       <c r="P999" s="3"/>
@@ -41124,7 +41127,7 @@
         <v>965</v>
       </c>
       <c r="B1000" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1000">
         <v>-1</v>
@@ -41138,8 +41141,17 @@
       <c r="R1000" s="3"/>
     </row>
     <row r="1001" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>965</v>
+      </c>
       <c r="B1001" t="s">
-        <v>2538</v>
+        <v>2485</v>
+      </c>
+      <c r="D1001">
+        <v>-1</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>2536</v>
       </c>
       <c r="O1001" s="3"/>
       <c r="P1001" s="3"/>
@@ -41148,7 +41160,7 @@
     </row>
     <row r="1002" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1002" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O1002" s="3"/>
       <c r="P1002" s="3"/>
@@ -41157,7 +41169,7 @@
     </row>
     <row r="1003" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1003" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="O1003" s="3"/>
       <c r="P1003" s="3"/>
@@ -41166,7 +41178,7 @@
     </row>
     <row r="1004" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1004" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="O1004" s="3"/>
       <c r="P1004" s="3"/>
@@ -41175,7 +41187,7 @@
     </row>
     <row r="1005" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1005" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="O1005" s="3"/>
       <c r="P1005" s="3"/>
@@ -41184,7 +41196,7 @@
     </row>
     <row r="1006" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1006" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="O1006" s="3"/>
       <c r="P1006" s="3"/>
@@ -41193,7 +41205,7 @@
     </row>
     <row r="1007" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1007" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O1007" s="3"/>
       <c r="P1007" s="3"/>
@@ -41201,6 +41213,9 @@
       <c r="R1007" s="3"/>
     </row>
     <row r="1008" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1008" t="s">
+        <v>2544</v>
+      </c>
       <c r="O1008" s="3"/>
       <c r="P1008" s="3"/>
       <c r="Q1008" s="3"/>
@@ -41225,12 +41240,6 @@
       <c r="R1011" s="3"/>
     </row>
     <row r="1012" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1012" t="s">
-        <v>2545</v>
-      </c>
-      <c r="E1012" t="s">
-        <v>2489</v>
-      </c>
       <c r="O1012" s="3"/>
       <c r="P1012" s="3"/>
       <c r="Q1012" s="3"/>
@@ -41238,7 +41247,7 @@
     </row>
     <row r="1013" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1013" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E1013" t="s">
         <v>2489</v>
@@ -41250,7 +41259,7 @@
     </row>
     <row r="1014" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1014" t="s">
-        <v>2404</v>
+        <v>2546</v>
       </c>
       <c r="E1014" t="s">
         <v>2489</v>
@@ -41262,10 +41271,10 @@
     </row>
     <row r="1015" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1015" t="s">
-        <v>2554</v>
+        <v>2404</v>
       </c>
       <c r="E1015" t="s">
-        <v>2558</v>
+        <v>2489</v>
       </c>
       <c r="O1015" s="3"/>
       <c r="P1015" s="3"/>
@@ -41274,7 +41283,7 @@
     </row>
     <row r="1016" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1016" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E1016" t="s">
         <v>2558</v>
@@ -41286,7 +41295,7 @@
     </row>
     <row r="1017" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1017" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="E1017" t="s">
         <v>2558</v>
@@ -41298,7 +41307,7 @@
     </row>
     <row r="1018" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1018" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E1018" t="s">
         <v>2558</v>
@@ -41310,7 +41319,10 @@
     </row>
     <row r="1019" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1019" t="s">
-        <v>2559</v>
+        <v>2557</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>2558</v>
       </c>
       <c r="O1019" s="3"/>
       <c r="P1019" s="3"/>
@@ -41319,7 +41331,7 @@
     </row>
     <row r="1020" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1020" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="O1020" s="3"/>
       <c r="P1020" s="3"/>
@@ -41328,7 +41340,7 @@
     </row>
     <row r="1021" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1021" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="O1021" s="3"/>
       <c r="P1021" s="3"/>
@@ -41337,7 +41349,7 @@
     </row>
     <row r="1022" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1022" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="O1022" s="3"/>
       <c r="P1022" s="3"/>
@@ -41346,7 +41358,7 @@
     </row>
     <row r="1023" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1023" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="O1023" s="3"/>
       <c r="P1023" s="3"/>
@@ -41354,6 +41366,9 @@
       <c r="R1023" s="3"/>
     </row>
     <row r="1024" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1024" t="s">
+        <v>2563</v>
+      </c>
       <c r="O1024" s="3"/>
       <c r="P1024" s="3"/>
       <c r="Q1024" s="3"/>
@@ -43741,27 +43756,33 @@
       <c r="Q1421" s="3"/>
       <c r="R1421" s="3"/>
     </row>
+    <row r="1422" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1422" s="3"/>
+      <c r="P1422" s="3"/>
+      <c r="Q1422" s="3"/>
+      <c r="R1422" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1024:B1048576 B1019:B1022 B955 B919 B953 B921:B927 B957:B962 B968 B949 B1:B828 B970:B974 B978 B938:B947 B936 B985:B998 B866:B872 B877:B879 B874:B875 B1001:B1017 B886:B894 B884 B882 B929:B934 B830:B836 B897:B906 B838:B841 B843:B862">
+  <conditionalFormatting sqref="B1025:B1048576 B1020:B1023 B956 B920 B954 B922:B928 B958:B963 B969 B950 B1:B828 B971:B975 B979 B939:B948 B937 B986:B999 B866:B872 B877:B879 B874:B875 B1002:B1018 B886:B894 B884 B882 B930:B935 B830:B836 B898:B907 B838:B841 B843:B862">
     <cfRule type="duplicateValues" dxfId="27" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B956">
+  <conditionalFormatting sqref="B957">
     <cfRule type="duplicateValues" dxfId="26" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B956">
+  <conditionalFormatting sqref="B957">
     <cfRule type="duplicateValues" dxfId="25" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B955">
+  <conditionalFormatting sqref="B956">
     <cfRule type="duplicateValues" dxfId="24" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B950:B952">
+  <conditionalFormatting sqref="B951:B953">
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B963:B965">
+  <conditionalFormatting sqref="B964:B966">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B966:B967">
+  <conditionalFormatting sqref="B967:B968">
     <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B863">
@@ -43773,28 +43794,28 @@
   <conditionalFormatting sqref="B864">
     <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B969">
+  <conditionalFormatting sqref="B970">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B975">
+  <conditionalFormatting sqref="B976">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B980:B981 B983">
+  <conditionalFormatting sqref="B981:B982 B984">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B982">
+  <conditionalFormatting sqref="B983">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K978:XFD978">
+  <conditionalFormatting sqref="K979:XFD979">
     <cfRule type="duplicateValues" dxfId="13" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B937">
+  <conditionalFormatting sqref="B938">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B935">
+  <conditionalFormatting sqref="B936">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B999:B1000">
+  <conditionalFormatting sqref="B1000:B1001">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B885">
@@ -43809,7 +43830,7 @@
   <conditionalFormatting sqref="B880">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B928">
+  <conditionalFormatting sqref="B929">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B829">
@@ -43818,7 +43839,7 @@
   <conditionalFormatting sqref="B895">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B896">
+  <conditionalFormatting sqref="B896:B897">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B837">
